--- a/biology/Médecine/Edmond_Delorme/Edmond_Delorme.xlsx
+++ b/biology/Médecine/Edmond_Delorme/Edmond_Delorme.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Edmond Delorme, est un médecin militaire et chirurgien français, né à Lunéville le 2 août 1847 et mort à Paris le 25 janvier 1929.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Edmond Delorme naît le 2 août 1847 à Lunéville, en Meurthe. Il intègre l’École impériale du Service de santé militaire de Strasbourg en 1866 et participe à la guerre franco-allemande de 1870 durant laquelle il aurait réalisé ses premières opérations à la lueur de la bougie. Fait prisonnier, il soigne pendant plusieurs mois les nombreuses victimes de la bataille de Saint-Quentin.
 Après la guerre, il poursuit ses études et soutient sa thèse à la faculté de médecine de Paris en 1871. Il séjourne brièvement à l'école d'application du Val-de-Grâce à Paris, avant de se rendre en Algérie, dans les hôpitaux militaires, puis en corps de troupe.
@@ -550,7 +564,9 @@
           <t>Travaux scientifiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Son apport à la chirurgie moderne est considérable. En posant les bases des salles d'opérations modernes, il s'impose comme un visionnaire et un précurseur de l'asepsie. On lui doit entre autres :
 la technique de décortication pleuro-pulmonaire, qui est aujourd'hui une pratique courante en chirurgie thoracique, détaillée dans son ouvrage Nouveau traitement de l'empyème chronique (1894) et dans Du traitement des empyèmes chroniques par la décortication du poumon (10e congrès français de chirurgie, 1896) ;
@@ -584,13 +600,15 @@
           <t>Titres, distinctions et hommages</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Grand officier de la Légion d'honneur[2] le 31 décembre 1912.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Grand officier de la Légion d'honneur le 31 décembre 1912.
  Médaille coloniale.
  Médaille commémorative de la guerre 1870-1871.
-Élu membre titulaire de l'Académie de médecine le 19 janvier 1897[3] et président en 1919.
-La promotion 2011 de l'École de santé des armées porte son nom[4],[5].</t>
+Élu membre titulaire de l'Académie de médecine le 19 janvier 1897 et président en 1919.
+La promotion 2011 de l'École de santé des armées porte son nom,.</t>
         </is>
       </c>
     </row>
@@ -618,7 +636,9 @@
           <t>Œuvres et publications</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Essais ophtalmoscopiques, [thèse de médecine de Paris no 161], 1871, Texte intégral.
 Manuel de technique du brancardier, J. Dumaine (Paris), 1880, lire en ligne sur Gallica.
